--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zaliczenie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shopTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320DC9F2-7B31-4A21-A6E5-9F821B469E53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FDB16B-997D-4535-A0E7-15FDFA5A8294}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Użytkownik widzi napis z nazwą wcześniej dodanego do koszyka produktu</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -281,11 +284,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -325,6 +339,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +678,7 @@
     <col min="8" max="8" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -674,7 +694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -682,7 +702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -690,13 +710,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -704,8 +724,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -731,7 +751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -756,8 +776,11 @@
       <c r="H10" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="I10" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>2</v>
       </c>
@@ -782,8 +805,11 @@
       <c r="H11" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I11" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -808,8 +834,11 @@
       <c r="H12" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I12" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>4</v>
       </c>
@@ -834,8 +863,11 @@
       <c r="H13" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="I13" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>5</v>
       </c>
@@ -859,6 +891,9 @@
       </c>
       <c r="H14" s="11" t="s">
         <v>46</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">

--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shopTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FDB16B-997D-4535-A0E7-15FDFA5A8294}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45949A5-F773-463A-AA7C-609C400A3A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,50 +34,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Test_01</t>
-  </si>
-  <si>
-    <t>Nazwa</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
     <t>Aneta Waligóra</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Lp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kroki </t>
   </si>
   <si>
     <t>Oczekiwany rezultat</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Środowisko</t>
   </si>
   <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>Logowanie do poczty e-mail</t>
-  </si>
-  <si>
     <t>Tytuł</t>
   </si>
   <si>
@@ -87,18 +63,12 @@
     <t>https://www.saucedemo.com/</t>
   </si>
   <si>
-    <t>Test_01a</t>
-  </si>
-  <si>
     <t>Zalogowanie się na stronę</t>
   </si>
   <si>
     <t>Przeglądarka: Chrome Strona https://www.saucedemo.com/</t>
   </si>
   <si>
-    <t>Użytkownik loguje się na stronę za pomocą dostępnych loginów</t>
-  </si>
-  <si>
     <t>1. W pole "Username" wpisać dostępny login z listy na dole strony "Accepted usernames"  2. W pole "Password" wpisać hasło z listy na dole strony "Password for all users"</t>
   </si>
   <si>
@@ -108,79 +78,169 @@
     <t>Kryteria akceptacji</t>
   </si>
   <si>
-    <t>Na szarym pasku użytkownik widzi napis "Products"</t>
-  </si>
-  <si>
-    <t>Test_01b</t>
-  </si>
-  <si>
-    <t>Dodanie produktu do koszyka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Użytkownik jest zalogowany na stronie https://www.saucedemo.com/ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Kliknąć "ADD TO CART" przy pierwszym produkcie </t>
-  </si>
-  <si>
-    <t>Przy ikonie koszyka w prawym górnym rogu pojawia się czerwone kółko z liczbą produktów w koszyku</t>
-  </si>
-  <si>
-    <t>W czerwonym kółku na koszyku widzę cyfrę 1 odpowiadającą 1 produktowi w koszyku</t>
-  </si>
-  <si>
-    <t>Test_01c</t>
-  </si>
-  <si>
-    <t>Przejście do koszyka</t>
-  </si>
-  <si>
-    <t>Użytkownik jest zalogowany na stronie https://www.saucedemo.com/ i posiada produkty w koszyku</t>
-  </si>
-  <si>
-    <t>1. Kliknąć ikonę koszyka w prawym górnym rogu</t>
-  </si>
-  <si>
-    <t>W koszyku posiadam wcześniej dodany produkt</t>
-  </si>
-  <si>
-    <t>Test_01d</t>
-  </si>
-  <si>
-    <t>Powrót do sklepu</t>
-  </si>
-  <si>
-    <t>Użytkownik ma stronę z otwartym koszykiem</t>
-  </si>
-  <si>
-    <t>1. Kliknąć na przycisk "CONTINUE SHOPPING"</t>
-  </si>
-  <si>
-    <t>Użytkownik zostaje przekierowany na stronę wyboru produktów (sklepu)</t>
-  </si>
-  <si>
-    <t>Test_01e</t>
-  </si>
-  <si>
-    <t>Usunięcie produktu</t>
-  </si>
-  <si>
-    <t>Użytkownik ma otwartą stronę ze sklepem</t>
-  </si>
-  <si>
-    <t>1. Kliknąć "REMOVE" przy wcześniej dodanym produkcie</t>
-  </si>
-  <si>
-    <t>Przy ikonie koszyka w prawym górnym rogu czerwone kółko powinno zniknąć</t>
-  </si>
-  <si>
-    <t>Czerwone kólko przy ikonie koszyka zniknęło co oznacza, że produkt został usunięty i w koszyku nie ma żadnych produktów</t>
-  </si>
-  <si>
-    <t>Użytkownik widzi napis z nazwą wcześniej dodanego do koszyka produktu</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>Test strony produktów</t>
+  </si>
+  <si>
+    <t>Użytkownik loguje się na stronę za pomocą zdefiniowanego loginu i hasła</t>
+  </si>
+  <si>
+    <t>Użytkownik widzi stronę sklepu z dostępnymi produkatmi</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy koszyk jest pusty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Użytkownik nie dodaje żadnych produktów do koszyka 2. Sprawdza czy przy koszyku nie pojawiła się czerwona ikonka z ilością produktów w koszyku </t>
+  </si>
+  <si>
+    <t>Przy ikonie koszyka w prawym górnym rogu nie powinno być widocznej żadnej ikony informującej o ilości produktów w koszyku</t>
+  </si>
+  <si>
+    <t>Koszyk użytkownika powinien być pusty</t>
+  </si>
+  <si>
+    <t>Dodanie pojedyńczego produktu do koszyka</t>
+  </si>
+  <si>
+    <t>Użytkownik jest zalogowany na stronie https://www.saucedemo.com/ i znajduje się na stronie głównej z produktami dostępnymi w sklepie</t>
+  </si>
+  <si>
+    <t>1. Kliknąć przycisk ADD TO CART znajdujący się przy produkcie</t>
+  </si>
+  <si>
+    <t>Przy koszyku użytkownika pojawia się czerwona ikona informująca o liczbie produktów w koszyku</t>
+  </si>
+  <si>
+    <t>Dodanie wielu produktów do koszyka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Kliknąć przycisk ADD TO CART znajdujący się przy produkcie 2. Powtórzyć 4 razy przy różnych produktach </t>
+  </si>
+  <si>
+    <t>Użytkownik posiada 4 różne produkty w koszyku o czym informuje go czerwona ikona z liczbą</t>
+  </si>
+  <si>
+    <t>Użytkownik widzi przy koszyku czerwoną ikonę a w niej liczbę 1 odpowiadającą 1 produktowi dodanemu do koszyka</t>
+  </si>
+  <si>
+    <t>Użytkownik widzi przy koszyku czerwoną ikonę a w niej liczbę 4 odpowiadającą 4 wcześniej dodanym produktom do koszyka</t>
+  </si>
+  <si>
+    <t>Usunięcie produktów z koszyka</t>
+  </si>
+  <si>
+    <t>1. Kliknąć przycisk REMOVE przy wcześniej dodanym do koszyka produkcie</t>
+  </si>
+  <si>
+    <t>Produkt powinien zostać usunięty z koszyka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czerwona ikona z liczbą produktów w koszyku powinna zniknąć co informuje, że w koszyku nie znajdują się żadne produkty </t>
+  </si>
+  <si>
+    <t>Sortowanie produktów alfabetycznie</t>
+  </si>
+  <si>
+    <t>Test01_1</t>
+  </si>
+  <si>
+    <t>Test01</t>
+  </si>
+  <si>
+    <t>Test01_2</t>
+  </si>
+  <si>
+    <t>Test01_3</t>
+  </si>
+  <si>
+    <t>Test01_4</t>
+  </si>
+  <si>
+    <t>Test01_5</t>
+  </si>
+  <si>
+    <t>Test01_6</t>
+  </si>
+  <si>
+    <t>Opcja sortowania jest aktywna i można wbrać z niej typ sortowania alfabetycznie (NAME A TO Z)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Użytkownik widzi w sklepie posortowane alfabetycznie produkty </t>
+  </si>
+  <si>
+    <t>Test01_7</t>
+  </si>
+  <si>
+    <t>Sortowanie produktów po cenie od najniższej</t>
+  </si>
+  <si>
+    <t>Test01_8</t>
+  </si>
+  <si>
+    <t>Użytkownik widzi w sklepie posortowane według ceny od najniższej do najwyższej produkty</t>
+  </si>
+  <si>
+    <t>Test01_9</t>
+  </si>
+  <si>
+    <t>Sortowanie produktów po cenie od najwyższej</t>
+  </si>
+  <si>
+    <t>1. Użytkownik ma dostępną możliwość sortowania produktów wykorzystując sortowaną listę 2. Wybrać typ sortowania price (low to high)</t>
+  </si>
+  <si>
+    <t>1. Użytkownik ma dostępną możliwość sortowania produktów wykorzystując sortowaną listę 2. Wybrać typ sortowania NAME (A TO Z)</t>
+  </si>
+  <si>
+    <t>1. Użytkownik ma dostępną możliwość sortowania produktów wykorzystując sortowaną listę 2. Wybrać typ sortowania price (high to low)</t>
+  </si>
+  <si>
+    <t>Opcja sortowania jest aktywna i można wbrać z niej typ sortowania po cenie od najniższej - price (low to high)</t>
+  </si>
+  <si>
+    <t>Opcja sortowania jest aktywna i można wbrać z niej typ sortowania po cenie od najwyższej - price (high to low)</t>
+  </si>
+  <si>
+    <t>Test01_10</t>
+  </si>
+  <si>
+    <t>Test01_11</t>
+  </si>
+  <si>
+    <t>Sortowanie produktów odwrotnie alfabetycznie</t>
+  </si>
+  <si>
+    <t>1. Użytkownik ma dostępną możliwość sortowania produktów wykorzystując sortowaną listę 2. Wybrać typ sortowania NAME (Z TO A)</t>
+  </si>
+  <si>
+    <t>Opcja sortowania jest aktywna i można wbrać z niej typ sortowania odwerotny do alfabetycznego (NAME Z TO A)</t>
+  </si>
+  <si>
+    <t>Użytkownik widzi w sklepie posortowane produkty odwrotnie alfabetycznie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widoczność domyślnej wartości sortowania na stronie </t>
+  </si>
+  <si>
+    <t>1. Użytkownik ma dostępną możliwość sortowania produktów wykorzystując dostępną listę sortowania 2. Ustawiony jest domyślny typ sortowania NAME (A TO Z)</t>
+  </si>
+  <si>
+    <t>Opcja sortowania jest aktywna i ustawiona jest na niej domyślna wartość</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybór każdego dostępnego typu sortowania </t>
+  </si>
+  <si>
+    <t>Opcja sortowania jest aktywna i można wybierać z niej różne typy sortowania</t>
+  </si>
+  <si>
+    <t>Użytkownik widzi opcję sortowania produktów i napis informujący o domyślnym typie sortowania - NAME (A TO Z)</t>
+  </si>
+  <si>
+    <t>1. Użytkownik ma dostępną możliwość sortowania produktów wykorzystując dostępną listę sortowania 2. Użytkownik sprawdza każdy możliwy typ sortowania wybierając go z listy 3. Widoczność informacji o typie sortowania zmienia się w zależności od wybranej opcji</t>
+  </si>
+  <si>
+    <t>Użytkownik widzi opcję sortowania produktów, może wybierać z niej każda z dostępnych 4 opcji i za każdym razem napis informujący o typie sortowania zmienia się na ten wybrany</t>
   </si>
 </sst>
 </file>
@@ -206,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +279,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -284,34 +350,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -325,25 +371,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -659,250 +696,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B951167-B18C-489E-B9D3-703C17C1CEC7}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.77734375" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="7" t="s">
+    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="14" t="s">
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="B18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>4</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>5</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="G19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>